--- a/src/main/resources/单次测试输出表样板.xlsx
+++ b/src/main/resources/单次测试输出表样板.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>指定练度伤害表</t>
   </si>
   <si>
     <t>角色</t>
+  </si>
+  <si>
+    <t>{角色简表}</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -167,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -223,7 +226,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,25 +268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,14 +281,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,10 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +320,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,7 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,15 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +456,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,61 +570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,91 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +964,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,11 +988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,8 +1021,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,41 +1061,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1066,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,19 +1081,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,116 +1102,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,9 +1327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,7 +2566,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11656695" y="134620"/>
-        <a:ext cx="7644130" cy="5431155"/>
+        <a:ext cx="7644130" cy="5383530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2839,8 +2839,8 @@
   <sheetPr/>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2903,7 +2903,9 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2918,7 +2920,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2936,48 +2938,48 @@
     <row r="5" spans="1:13">
       <c r="A5" s="8"/>
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:13">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3005,7 +3007,7 @@
     </row>
     <row r="7" ht="15" spans="1:13">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3033,7 +3035,7 @@
     </row>
     <row r="8" ht="15" spans="1:13">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3059,9 +3061,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:13">
+    <row r="9" ht="15" spans="1:13">
       <c r="A9" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3089,7 +3091,7 @@
     </row>
     <row r="10" ht="15" spans="1:13">
       <c r="A10" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3115,9 +3117,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:13">
+    <row r="11" ht="15" spans="1:13">
       <c r="A11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -3145,7 +3147,7 @@
     </row>
     <row r="12" ht="15" spans="1:13">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3171,9 +3173,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:13">
+    <row r="13" ht="15" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3201,7 +3203,7 @@
     </row>
     <row r="14" ht="15" spans="1:13">
       <c r="A14" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3227,9 +3229,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:13">
+    <row r="15" ht="15" spans="1:13">
       <c r="A15" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -3257,7 +3259,7 @@
     </row>
     <row r="16" ht="15" spans="1:13">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -3285,7 +3287,7 @@
     </row>
     <row r="17" ht="15" spans="1:13">
       <c r="A17" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -3313,7 +3315,7 @@
     </row>
     <row r="18" ht="15" spans="1:13">
       <c r="A18" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3341,7 +3343,7 @@
     </row>
     <row r="19" ht="15" spans="1:13">
       <c r="A19" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3369,7 +3371,7 @@
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:13">
       <c r="A20" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3397,7 +3399,7 @@
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:13">
       <c r="A21" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -3423,9 +3425,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:13">
+    <row r="22" customFormat="1" ht="15" spans="1:13">
       <c r="A22" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3438,7 +3440,7 @@
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3457,7 +3459,7 @@
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:13">
       <c r="A24" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3470,7 +3472,7 @@
     </row>
     <row r="25" ht="15" spans="1:13">
       <c r="A25" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3483,7 +3485,7 @@
     </row>
     <row r="26" ht="15" spans="1:13">
       <c r="A26" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3496,7 +3498,7 @@
     </row>
     <row r="27" ht="15" spans="1:13">
       <c r="A27" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3509,7 +3511,7 @@
     </row>
     <row r="28" ht="15" spans="1:13">
       <c r="A28" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3522,7 +3524,7 @@
     </row>
     <row r="29" ht="15" spans="1:13">
       <c r="A29" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L29" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3535,7 +3537,7 @@
     </row>
     <row r="30" ht="15" spans="1:13">
       <c r="A30" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3548,7 +3550,7 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:21">
       <c r="A31" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3563,24 +3565,24 @@
         <v>1</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T31" s="29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:21">
       <c r="A32" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L32" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3591,20 +3593,20 @@
         <v/>
       </c>
       <c r="O32" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="39"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:21">
       <c r="A33" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3620,11 +3622,11 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
-      <c r="U33" s="41"/>
+      <c r="U33" s="40"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:21">
       <c r="A34" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L34" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3640,11 +3642,11 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
-      <c r="U34" s="41"/>
+      <c r="U34" s="40"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:21">
       <c r="A35" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L35" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3660,11 +3662,11 @@
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
-      <c r="U35" s="41"/>
+      <c r="U35" s="40"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:21">
       <c r="A36" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L36" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3680,11 +3682,11 @@
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
-      <c r="U36" s="42"/>
+      <c r="U36" s="41"/>
     </row>
     <row r="37" ht="15.15" spans="1:13">
       <c r="A37" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15">
@@ -3754,7 +3756,7 @@
     </row>
     <row r="46" ht="17.4" spans="9:11">
       <c r="I46" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
@@ -3796,7 +3798,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28ae5c0c-9a9c-40c6-980b-65c3df23a485}</x14:id>
+          <x14:id>{279517cc-5577-438f-9f87-13764a5b234a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3815,7 +3817,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{013210ea-052e-4f42-a8eb-ba35a894b4c4}</x14:id>
+          <x14:id>{af889372-df1b-4755-97a0-c2d687bc5c7d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3829,7 +3831,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c5517e6e-64f7-49dd-ba3d-8da40b8e9ef9}</x14:id>
+          <x14:id>{23713d81-0a1f-4aaf-9753-173fd60d6cbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3843,7 +3845,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b4c96a22-1189-4720-ac7d-ca8959dee47f}</x14:id>
+          <x14:id>{fc2276fc-dc5d-4d6e-aaab-bae5e2963f07}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3857,7 +3859,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f4d759e-bd61-4df2-bc25-db7c19bdc093}</x14:id>
+          <x14:id>{e4dc756d-2d05-4ed5-8862-69a706ba5c86}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3879,7 +3881,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5dc6425e-53d6-4b8e-9d73-ac2a603b4923}</x14:id>
+          <x14:id>{e512f115-d42b-481d-8cd6-e5fc7b218661}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3891,7 +3893,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28ae5c0c-9a9c-40c6-980b-65c3df23a485}">
+          <x14:cfRule type="dataBar" id="{279517cc-5577-438f-9f87-13764a5b234a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3904,7 +3906,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{013210ea-052e-4f42-a8eb-ba35a894b4c4}">
+          <x14:cfRule type="dataBar" id="{af889372-df1b-4755-97a0-c2d687bc5c7d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3917,7 +3919,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c5517e6e-64f7-49dd-ba3d-8da40b8e9ef9}">
+          <x14:cfRule type="dataBar" id="{23713d81-0a1f-4aaf-9753-173fd60d6cbd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3930,7 +3932,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b4c96a22-1189-4720-ac7d-ca8959dee47f}">
+          <x14:cfRule type="dataBar" id="{fc2276fc-dc5d-4d6e-aaab-bae5e2963f07}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3943,7 +3945,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f4d759e-bd61-4df2-bc25-db7c19bdc093}">
+          <x14:cfRule type="dataBar" id="{e4dc756d-2d05-4ed5-8862-69a706ba5c86}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3956,7 +3958,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5dc6425e-53d6-4b8e-9d73-ac2a603b4923}">
+          <x14:cfRule type="dataBar" id="{e512f115-d42b-481d-8cd6-e5fc7b218661}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/src/main/resources/单次测试输出表样板.xlsx
+++ b/src/main/resources/单次测试输出表样板.xlsx
@@ -2840,7 +2840,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3798,7 +3798,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{279517cc-5577-438f-9f87-13764a5b234a}</x14:id>
+          <x14:id>{f1dedc38-a053-492d-a721-c9f53323b895}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3817,7 +3817,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af889372-df1b-4755-97a0-c2d687bc5c7d}</x14:id>
+          <x14:id>{1b316261-854f-45d0-964c-342a72fe0bbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3831,7 +3831,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23713d81-0a1f-4aaf-9753-173fd60d6cbd}</x14:id>
+          <x14:id>{158845f8-9bbf-4b66-9f52-b68ed371c1aa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3845,7 +3845,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc2276fc-dc5d-4d6e-aaab-bae5e2963f07}</x14:id>
+          <x14:id>{45c0fbb8-6f35-4c21-a2a1-144c1195592b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3859,7 +3859,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4dc756d-2d05-4ed5-8862-69a706ba5c86}</x14:id>
+          <x14:id>{e7b889f4-f4ae-4397-949a-760939c59d48}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3881,7 +3881,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e512f115-d42b-481d-8cd6-e5fc7b218661}</x14:id>
+          <x14:id>{a94294a6-764e-4372-8aac-70870b597ab4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3893,7 +3893,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{279517cc-5577-438f-9f87-13764a5b234a}">
+          <x14:cfRule type="dataBar" id="{f1dedc38-a053-492d-a721-c9f53323b895}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3906,7 +3906,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{af889372-df1b-4755-97a0-c2d687bc5c7d}">
+          <x14:cfRule type="dataBar" id="{1b316261-854f-45d0-964c-342a72fe0bbb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3919,7 +3919,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23713d81-0a1f-4aaf-9753-173fd60d6cbd}">
+          <x14:cfRule type="dataBar" id="{158845f8-9bbf-4b66-9f52-b68ed371c1aa}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3932,7 +3932,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fc2276fc-dc5d-4d6e-aaab-bae5e2963f07}">
+          <x14:cfRule type="dataBar" id="{45c0fbb8-6f35-4c21-a2a1-144c1195592b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3945,7 +3945,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e4dc756d-2d05-4ed5-8862-69a706ba5c86}">
+          <x14:cfRule type="dataBar" id="{e7b889f4-f4ae-4397-949a-760939c59d48}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3958,7 +3958,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e512f115-d42b-481d-8cd6-e5fc7b218661}">
+          <x14:cfRule type="dataBar" id="{a94294a6-764e-4372-8aac-70870b597ab4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/src/main/resources/单次测试输出表样板.xlsx
+++ b/src/main/resources/单次测试输出表样板.xlsx
@@ -10,18 +10,18 @@
     <sheet name="伤害" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="回合数" localSheetId="0">OFFSET(伤害!$A$5,1,0,COUNT(伤害!$M:$M))</definedName>
-    <definedName name="累积伤害" localSheetId="0">OFFSET(伤害!$M$5,1,0,COUNT(伤害!$M:$M))</definedName>
-    <definedName name="伤害差值">OFFSET(伤害!$L$5,1,0,COUNT(伤害!$M:$M))</definedName>
+    <definedName name="回合数" localSheetId="0">OFFSET(伤害!$A$5,1,0,COUNT(伤害!$N:$N))</definedName>
+    <definedName name="累积伤害" localSheetId="0">OFFSET(伤害!$N$5,1,0,COUNT(伤害!$N:$N))</definedName>
+    <definedName name="伤害差值">OFFSET(伤害!$M$5,1,0,COUNT(伤害!$N:$N))</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
-  <si>
-    <t>指定练度伤害表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+  <si>
+    <t>满配伤害表</t>
   </si>
   <si>
     <t>角色</t>
@@ -33,6 +33,9 @@
     <t>攻击力</t>
   </si>
   <si>
+    <t>回合数</t>
+  </si>
+  <si>
     <t>行动轴</t>
   </si>
   <si>
@@ -48,10 +51,16 @@
     <t>1T</t>
   </si>
   <si>
+    <t>{行动轴}</t>
+  </si>
+  <si>
     <t>{伤害表}</t>
   </si>
   <si>
     <t>2T</t>
+  </si>
+  <si>
+    <t>1a1 2a2 3a3 4a4 5a5</t>
   </si>
   <si>
     <t>3T</t>
@@ -176,7 +185,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +196,21 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +420,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,6 +444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -623,6 +665,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -662,6 +717,17 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -795,21 +861,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF5A5A5A"/>
       </left>
       <right style="thin">
@@ -823,35 +874,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
         <color rgb="FFE6E6E6"/>
@@ -880,21 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -902,6 +910,21 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,9 +948,37 @@
         <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFE6E6E6"/>
       </bottom>
@@ -945,6 +996,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,144 +1147,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,115 +1293,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1551,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.424553721791849"/>
-          <c:y val="0.0185752930568079"/>
+          <c:x val="0.425967325650156"/>
+          <c:y val="0.0481835879876835"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1487,10 +1571,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0487147422537168"/>
-          <c:y val="0.140635564570656"/>
-          <c:w val="0.894594970126442"/>
-          <c:h val="0.719269776876268"/>
+          <c:x val="0.0673873274571761"/>
+          <c:y val="0.0342165898617512"/>
+          <c:w val="0.865225345085648"/>
+          <c:h val="0.825645161290323"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2548,16 +2632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2565,8 +2649,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11656695" y="134620"/>
-        <a:ext cx="7644130" cy="5383530"/>
+        <a:off x="13147675" y="134620"/>
+        <a:ext cx="7056120" cy="5398770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2837,959 +2921,1003 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.72222222222222" customWidth="1"/>
-    <col min="2" max="2" width="8.17592592592593" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.17592592592593" customWidth="1"/>
-    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.17592592592593" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="8.17592592592593" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="8.17592592592593" customWidth="1"/>
-    <col min="11" max="11" width="17.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="16.9814814814815" customWidth="1"/>
-    <col min="13" max="13" width="11.5833333333333" customWidth="1"/>
-    <col min="14" max="14" width="4.12962962962963" customWidth="1"/>
-    <col min="15" max="15" width="9.41666666666667" customWidth="1"/>
-    <col min="16" max="16" width="18.5555555555556" customWidth="1"/>
-    <col min="17" max="18" width="9.08333333333333" customWidth="1"/>
-    <col min="19" max="19" width="22.3796296296296" customWidth="1"/>
-    <col min="20" max="20" width="16.3518518518519" customWidth="1"/>
-    <col min="21" max="21" width="17.9351851851852" customWidth="1"/>
+    <col min="2" max="2" width="21.7407407407407" customWidth="1"/>
+    <col min="3" max="3" width="8.17592592592593" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.17592592592593" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.17592592592593" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="8.17592592592593" customWidth="1"/>
+    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.17592592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="16.9814814814815" customWidth="1"/>
+    <col min="14" max="14" width="11.5833333333333" customWidth="1"/>
+    <col min="15" max="15" width="4.12962962962963" customWidth="1"/>
+    <col min="16" max="16" width="9.41666666666667" customWidth="1"/>
+    <col min="17" max="17" width="18.5555555555556" customWidth="1"/>
+    <col min="18" max="19" width="9.08333333333333" customWidth="1"/>
+    <col min="20" max="20" width="22.3796296296296" customWidth="1"/>
+    <col min="21" max="21" width="16.3518518518519" customWidth="1"/>
+    <col min="22" max="22" width="17.9351851851852" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:13">
+    <row r="1" ht="16" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:13">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:14">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="M6" s="30">
+        <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="31">
+        <f>IF(M6="","",SUM(M$6:M6))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:14">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" ref="M7:M36" si="0">IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
+        <v>20</v>
+      </c>
+      <c r="N7" s="31">
+        <f>IF(M7="","",SUM(M$6:M7))</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:14">
+      <c r="A8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="L8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" s="25">
-        <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
-        <v>15</v>
-      </c>
-      <c r="M6" s="26">
-        <f>IF(L6="","",SUM(L$6:L6))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:13">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" ref="L7:L36" si="0">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
-        <v>20</v>
-      </c>
-      <c r="M7" s="26">
-        <f>IF(L7="","",SUM(L$6:L7))</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:13">
-      <c r="A8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8" s="25">
+      <c r="M8" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M8" s="26">
-        <f>IF(L8="","",SUM(L$6:L8))</f>
+      <c r="N8" s="31">
+        <f>IF(M8="","",SUM(M$6:M8))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:13">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+    <row r="9" ht="15" spans="1:14">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="L9" s="25">
+      <c r="M9" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M9" s="26">
-        <f>IF(L9="","",SUM(L$6:L9))</f>
+      <c r="N9" s="31">
+        <f>IF(M9="","",SUM(M$6:M9))</f>
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:13">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+    <row r="10" ht="15" spans="1:14">
+      <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10" s="25">
+      <c r="M10" s="30">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="M10" s="26">
-        <f>IF(L10="","",SUM(L$6:L10))</f>
+      <c r="N10" s="31">
+        <f>IF(M10="","",SUM(M$6:M10))</f>
         <v>125</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:13">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+    <row r="11" ht="15" spans="1:14">
+      <c r="A11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M11" s="26">
-        <f>IF(L11="","",SUM(L$6:L11))</f>
+      <c r="N11" s="31">
+        <f>IF(M11="","",SUM(M$6:M11))</f>
         <v>165</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:13">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+    <row r="12" ht="15" spans="1:14">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="30">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M12" s="26">
-        <f>IF(L12="","",SUM(L$6:L12))</f>
+      <c r="N12" s="31">
+        <f>IF(M12="","",SUM(M$6:M12))</f>
         <v>210</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:13">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
+    <row r="13" ht="15" spans="1:14">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="30">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M13" s="26">
-        <f>IF(L13="","",SUM(L$6:L13))</f>
+      <c r="N13" s="31">
+        <f>IF(M13="","",SUM(M$6:M13))</f>
         <v>260</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:13">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+    <row r="14" ht="15" spans="1:14">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="30">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M14" s="26">
-        <f>IF(L14="","",SUM(L$6:L14))</f>
+      <c r="N14" s="31">
+        <f>IF(M14="","",SUM(M$6:M14))</f>
         <v>315</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:13">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
+    <row r="15" ht="15" spans="1:14">
+      <c r="A15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>14</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M15" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M15" s="26">
-        <f>IF(L15="","",SUM(L$6:L15))</f>
+      <c r="N15" s="31">
+        <f>IF(M15="","",SUM(M$6:M15))</f>
         <v>375</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:13">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
+    <row r="16" ht="15" spans="1:14">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="L16" s="25">
+      <c r="M16" s="30">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="M16" s="26">
-        <f>IF(L16="","",SUM(L$6:L16))</f>
+      <c r="N16" s="31">
+        <f>IF(M16="","",SUM(M$6:M16))</f>
         <v>440</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:13">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
+    <row r="17" ht="15" spans="1:14">
+      <c r="A17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>16</v>
       </c>
-      <c r="L17" s="25">
+      <c r="M17" s="30">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="M17" s="26">
-        <f>IF(L17="","",SUM(L$6:L17))</f>
+      <c r="N17" s="31">
+        <f>IF(M17="","",SUM(M$6:M17))</f>
         <v>510</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:13">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
+    <row r="18" ht="15" spans="1:14">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="D18">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M18" s="30">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M18" s="26">
-        <f>IF(L18="","",SUM(L$6:L18))</f>
+      <c r="N18" s="31">
+        <f>IF(M18="","",SUM(M$6:M18))</f>
         <v>585</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:13">
-      <c r="A19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
+    <row r="19" ht="15" spans="1:14">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M19" s="30">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="M19" s="26">
-        <f>IF(L19="","",SUM(L$6:L19))</f>
+      <c r="N19" s="31">
+        <f>IF(M19="","",SUM(M$6:M19))</f>
         <v>665</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:13">
-      <c r="A20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
+    <row r="20" customFormat="1" ht="15" spans="1:14">
+      <c r="A20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="D20">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>17</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>19</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="30">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="M20" s="26">
-        <f>IF(L20="","",SUM(L$6:L20))</f>
+      <c r="N20" s="31">
+        <f>IF(M20="","",SUM(M$6:M20))</f>
         <v>750</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:13">
-      <c r="A21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
+    <row r="21" customFormat="1" ht="15" spans="1:14">
+      <c r="A21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21" s="25">
+      <c r="M21" s="30">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="M21" s="26">
-        <f>IF(L21="","",SUM(L$6:L21))</f>
+      <c r="N21" s="31">
+        <f>IF(M21="","",SUM(M$6:M21))</f>
         <v>840</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:13">
-      <c r="A22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="25" t="str">
+    <row r="22" customFormat="1" ht="15" spans="1:14">
+      <c r="A22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="M22" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="26" t="str">
-        <f>IF(L22="","",SUM(L$6:L22))</f>
+      <c r="N22" s="31" t="str">
+        <f>IF(M22="","",SUM(M$6:M22))</f>
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
-      <c r="A23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="25" t="str">
+    <row r="23" customFormat="1" ht="15" spans="1:21">
+      <c r="A23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="M23" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="26" t="str">
-        <f>IF(L23="","",SUM(L$6:L23))</f>
+      <c r="N23" s="31" t="str">
+        <f>IF(M23="","",SUM(M$6:M23))</f>
         <v/>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-    </row>
-    <row r="24" customFormat="1" ht="15" spans="1:13">
-      <c r="A24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="25" t="str">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+    </row>
+    <row r="24" customFormat="1" ht="15" spans="1:14">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="M24" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="26" t="str">
-        <f>IF(L24="","",SUM(L$6:L24))</f>
+      <c r="N24" s="31" t="str">
+        <f>IF(M24="","",SUM(M$6:M24))</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:13">
-      <c r="A25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="25" t="str">
+    <row r="25" ht="15" spans="1:14">
+      <c r="A25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="M25" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="26" t="str">
-        <f>IF(L25="","",SUM(L$6:L25))</f>
+      <c r="N25" s="31" t="str">
+        <f>IF(M25="","",SUM(M$6:M25))</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="25" t="str">
+    <row r="26" ht="15" spans="1:14">
+      <c r="A26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="M26" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="26" t="str">
-        <f>IF(L26="","",SUM(L$6:L26))</f>
+      <c r="N26" s="31" t="str">
+        <f>IF(M26="","",SUM(M$6:M26))</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="25" t="str">
+    <row r="27" ht="15" spans="1:14">
+      <c r="A27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="M27" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="26" t="str">
-        <f>IF(L27="","",SUM(L$6:L27))</f>
+      <c r="N27" s="31" t="str">
+        <f>IF(M27="","",SUM(M$6:M27))</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:13">
-      <c r="A28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="25" t="str">
+    <row r="28" ht="15" spans="1:14">
+      <c r="A28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="M28" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="26" t="str">
-        <f>IF(L28="","",SUM(L$6:L28))</f>
+      <c r="N28" s="31" t="str">
+        <f>IF(M28="","",SUM(M$6:M28))</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="25" t="str">
+    <row r="29" ht="15" spans="1:14">
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="M29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="26" t="str">
-        <f>IF(L29="","",SUM(L$6:L29))</f>
+      <c r="N29" s="31" t="str">
+        <f>IF(M29="","",SUM(M$6:M29))</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:13">
-      <c r="A30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="25" t="str">
+    <row r="30" ht="15" spans="1:14">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="M30" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="26" t="str">
-        <f>IF(L30="","",SUM(L$6:L30))</f>
+      <c r="N30" s="31" t="str">
+        <f>IF(M30="","",SUM(M$6:M30))</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="25" t="str">
+    <row r="31" ht="15" customHeight="1" spans="1:22">
+      <c r="A31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="M31" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="26" t="str">
-        <f>IF(L31="","",SUM(L$6:L31))</f>
+      <c r="N31" s="31" t="str">
+        <f>IF(M31="","",SUM(M$6:M31))</f>
         <v/>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29" t="s">
+      <c r="P31" s="33"/>
+      <c r="Q31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q31" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="S31" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" s="29" t="s">
+      <c r="R31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="25" t="str">
+      <c r="V31" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:22">
+      <c r="A32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="M32" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="26" t="str">
-        <f>IF(L32="","",SUM(L$6:L32))</f>
+      <c r="N32" s="31" t="str">
+        <f>IF(M32="","",SUM(M$6:M32))</f>
         <v/>
       </c>
-      <c r="O32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="39"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="25" t="str">
+      <c r="P32" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:22">
+      <c r="A33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="M33" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M33" s="26" t="str">
-        <f>IF(L33="","",SUM(L$6:L33))</f>
+      <c r="N33" s="31" t="str">
+        <f>IF(M33="","",SUM(M$6:M33))</f>
         <v/>
       </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="40"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="25" t="str">
+      <c r="P33" s="35"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="45"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:22">
+      <c r="A34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="M34" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M34" s="26" t="str">
-        <f>IF(L34="","",SUM(L$6:L34))</f>
+      <c r="N34" s="31" t="str">
+        <f>IF(M34="","",SUM(M$6:M34))</f>
         <v/>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="40"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="25" t="str">
+      <c r="P34" s="35"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="45"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:22">
+      <c r="A35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="M35" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M35" s="26" t="str">
-        <f>IF(L35="","",SUM(L$6:L35))</f>
+      <c r="N35" s="31" t="str">
+        <f>IF(M35="","",SUM(M$6:M35))</f>
         <v/>
       </c>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="40"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="25" t="str">
+      <c r="P35" s="35"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="45"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:22">
+      <c r="A36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="M36" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="26" t="str">
-        <f>IF(L36="","",SUM(L$6:L36))</f>
+      <c r="N36" s="31" t="str">
+        <f>IF(M36="","",SUM(M$6:M36))</f>
         <v/>
       </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="41"/>
-    </row>
-    <row r="37" ht="15.15" spans="1:13">
-      <c r="A37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15">
-        <f>SUM(C$6:C36)</f>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row r="37" ht="15.15" spans="1:14">
+      <c r="A37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21">
+        <f>SUM(D$6:D36)</f>
         <v>136</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15">
-        <f>SUM(E$6:E36)</f>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21">
+        <f>SUM(F$6:F36)</f>
         <v>152</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15">
-        <f>SUM(G$6:G36)</f>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21">
+        <f>SUM(H$6:H36)</f>
         <v>168</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15">
-        <f>SUM(I$6:I36)</f>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21">
+        <f>SUM(J$6:J36)</f>
         <v>184</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15">
-        <f>SUM(K$6:K36)</f>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21">
+        <f>SUM(L$6:L36)</f>
         <v>200</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" spans="8:13">
-      <c r="H38" s="16" t="str">
-        <f>COUNT($M:$M)&amp;"回合伤害："&amp;Q50</f>
+      <c r="M37" s="21"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38" s="38" t="str">
+        <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
         <v>16回合伤害：840</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="7:13">
-      <c r="G39" s="17"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" ht="22" customHeight="1" spans="7:13">
-      <c r="G40" s="17"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="7:13">
-      <c r="G41" s="17"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-    </row>
-    <row r="46" ht="17.4" spans="9:11">
-      <c r="I46" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="50" spans="16:17">
-      <c r="P50">
-        <f>SUM(C37,E37,G37,I37,K37)</f>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="8:14">
+      <c r="H39" s="22"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="8:14">
+      <c r="H40" s="22"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="8:14">
+      <c r="H41" s="22"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+    </row>
+    <row r="46" ht="17.4" spans="10:12">
+      <c r="J46" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+    </row>
+    <row r="50" spans="17:18">
+      <c r="Q50">
+        <f>SUM(D37,F37,H37,J37,L37)</f>
         <v>840</v>
       </c>
-      <c r="Q50">
-        <f>IF(P50=0,1,P50)</f>
+      <c r="R50">
+        <f>IF(Q50=0,1,Q50)</f>
         <v>840</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="H38:M41"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="I38:N41"/>
   </mergeCells>
-  <conditionalFormatting sqref="C37:K37">
+  <conditionalFormatting sqref="D37:L37">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -3798,17 +3926,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f1dedc38-a053-492d-a721-c9f53323b895}</x14:id>
+          <x14:id>{9b213020-3281-4e0f-9b3a-7292d13cd49f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B36">
+  <conditionalFormatting sqref="C6:C36">
     <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="q">
-      <formula>NOT(ISERROR(SEARCH("q",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("q",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C36">
+  <conditionalFormatting sqref="D6:D36">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -3817,12 +3945,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b316261-854f-45d0-964c-342a72fe0bbb}</x14:id>
+          <x14:id>{207953e3-3f94-434d-9a21-2d0c45e26284}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L36">
+  <conditionalFormatting sqref="M6:M36">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3831,12 +3959,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{158845f8-9bbf-4b66-9f52-b68ed371c1aa}</x14:id>
+          <x14:id>{78a89b8e-bf20-488e-b2f8-09642fc66953}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M36">
+  <conditionalFormatting sqref="N6:N36">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3845,12 +3973,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45c0fbb8-6f35-4c21-a2a1-144c1195592b}</x14:id>
+          <x14:id>{00617252-e18c-4675-a8f6-026eeb1fa468}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6 B8:B36">
+  <conditionalFormatting sqref="C6 C8:C36">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3859,20 +3987,20 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e7b889f4-f4ae-4397-949a-760939c59d48}</x14:id>
+          <x14:id>{22692042-5b6d-47ca-a957-31646f143cce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H36 D6:D36 F6:F36 J6:J36 B6:B36">
+  <conditionalFormatting sqref="I6:I36 C6:C36 K6:K36 G6:G36 E6:E36">
     <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="防御">
-      <formula>NOT(ISERROR(SEARCH("防御",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("防御",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="10" operator="between" text="必杀">
-      <formula>NOT(ISERROR(SEARCH("必杀",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("必杀",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:K36">
+  <conditionalFormatting sqref="D6:L36">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -3881,7 +4009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a94294a6-764e-4372-8aac-70870b597ab4}</x14:id>
+          <x14:id>{d353bd8e-ae47-423a-9c04-4e46b1a6707a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3893,7 +4021,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f1dedc38-a053-492d-a721-c9f53323b895}">
+          <x14:cfRule type="dataBar" id="{9b213020-3281-4e0f-9b3a-7292d13cd49f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3903,10 +4031,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C37:K37</xm:sqref>
+          <xm:sqref>D37:L37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b316261-854f-45d0-964c-342a72fe0bbb}">
+          <x14:cfRule type="dataBar" id="{207953e3-3f94-434d-9a21-2d0c45e26284}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3916,23 +4044,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C36</xm:sqref>
+          <xm:sqref>D6:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{158845f8-9bbf-4b66-9f52-b68ed371c1aa}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L6:L36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45c0fbb8-6f35-4c21-a2a1-144c1195592b}">
+          <x14:cfRule type="dataBar" id="{78a89b8e-bf20-488e-b2f8-09642fc66953}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3945,7 +4060,20 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e7b889f4-f4ae-4397-949a-760939c59d48}">
+          <x14:cfRule type="dataBar" id="{00617252-e18c-4675-a8f6-026eeb1fa468}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6:N36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22692042-5b6d-47ca-a957-31646f143cce}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3955,10 +4083,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B6 B8:B36</xm:sqref>
+          <xm:sqref>C6 C8:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a94294a6-764e-4372-8aac-70870b597ab4}">
+          <x14:cfRule type="dataBar" id="{d353bd8e-ae47-423a-9c04-4e46b1a6707a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3968,7 +4096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:K36</xm:sqref>
+          <xm:sqref>D6:L36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/单次测试输出表样板.xlsx
+++ b/src/main/resources/单次测试输出表样板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>满配伤害表</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>2T</t>
-  </si>
-  <si>
-    <t>1a1 2a2 3a3 4a4 5a5</t>
   </si>
   <si>
     <t>3T</t>
@@ -179,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -256,10 +253,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,8 +283,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,11 +328,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,9 +361,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,16 +375,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,44 +389,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -468,25 +465,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,49 +537,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,103 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,21 +1037,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1088,7 +1070,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,17 +1094,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1127,6 +1113,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,10 +1132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,137 +1144,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,9 +1330,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1614,55 +1608,10 @@
             <c:numRef>
               <c:f>[0]!伤害差值</c:f>
               <c:numCache>
-                <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,114 +1665,21 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[0]伤害!回合数</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1T</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3T</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4T</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5T</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6T</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7T</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8T</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9T</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10T</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11T</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12T</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13T</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14T</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15T</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16T</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]伤害!累积伤害</c:f>
               <c:numCache>
-                <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>840</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,7 +2780,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2968,7 +2824,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="23"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" ht="15.15" spans="1:14">
       <c r="A2" s="4"/>
@@ -2984,7 +2840,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="24"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="7" t="s">
@@ -3002,8 +2858,8 @@
       <c r="J3" s="9"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="10" t="s">
@@ -3020,7 +2876,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="27"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
@@ -3059,10 +2915,10 @@
       <c r="L5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3076,827 +2932,586 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="30">
+      <c r="D6"/>
+      <c r="M6" s="29" t="str">
         <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
-        <v>15</v>
-      </c>
-      <c r="N6" s="31">
+        <v/>
+      </c>
+      <c r="N6" s="30" t="str">
         <f>IF(M6="","",SUM(M$6:M6))</f>
-        <v>15</v>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
       <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" s="30">
+      <c r="B7" s="17"/>
+      <c r="M7" s="29" t="str">
         <f t="shared" ref="M7:M36" si="0">IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
-        <v>20</v>
-      </c>
-      <c r="N7" s="31">
+        <v/>
+      </c>
+      <c r="N7" s="30" t="str">
         <f>IF(M7="","",SUM(M$6:M7))</f>
-        <v>35</v>
+        <v/>
       </c>
     </row>
     <row r="8" ht="15" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="N8" s="31">
+        <v/>
+      </c>
+      <c r="N8" s="30" t="str">
         <f>IF(M8="","",SUM(M$6:M8))</f>
-        <v>60</v>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N9" s="31">
+        <v/>
+      </c>
+      <c r="N9" s="30" t="str">
         <f>IF(M9="","",SUM(M$6:M9))</f>
-        <v>90</v>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
       <c r="A10" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N10" s="31">
+        <v/>
+      </c>
+      <c r="N10" s="30" t="str">
         <f>IF(M10="","",SUM(M$6:M10))</f>
-        <v>125</v>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" s="30">
+      <c r="M11" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="N11" s="31">
+        <v/>
+      </c>
+      <c r="N11" s="30" t="str">
         <f>IF(M11="","",SUM(M$6:M11))</f>
-        <v>165</v>
+        <v/>
       </c>
     </row>
     <row r="12" ht="15" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12" s="30">
+      <c r="M12" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="N12" s="31">
+        <v/>
+      </c>
+      <c r="N12" s="30" t="str">
         <f>IF(M12="","",SUM(M$6:M12))</f>
-        <v>210</v>
+        <v/>
       </c>
     </row>
     <row r="13" ht="15" spans="1:14">
       <c r="A13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13" s="30">
+      <c r="M13" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N13" s="31">
+        <v/>
+      </c>
+      <c r="N13" s="30" t="str">
         <f>IF(M13="","",SUM(M$6:M13))</f>
-        <v>260</v>
+        <v/>
       </c>
     </row>
     <row r="14" ht="15" spans="1:14">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14" s="30">
+      <c r="M14" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="N14" s="31">
+        <v/>
+      </c>
+      <c r="N14" s="30" t="str">
         <f>IF(M14="","",SUM(M$6:M14))</f>
-        <v>315</v>
+        <v/>
       </c>
     </row>
     <row r="15" ht="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15" s="30">
+      <c r="M15" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N15" s="31">
+        <v/>
+      </c>
+      <c r="N15" s="30" t="str">
         <f>IF(M15="","",SUM(M$6:M15))</f>
-        <v>375</v>
+        <v/>
       </c>
     </row>
     <row r="16" ht="15" spans="1:14">
       <c r="A16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16" s="30">
+      <c r="M16" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="N16" s="31">
+        <v/>
+      </c>
+      <c r="N16" s="30" t="str">
         <f>IF(M16="","",SUM(M$6:M16))</f>
-        <v>440</v>
+        <v/>
       </c>
     </row>
     <row r="17" ht="15" spans="1:14">
       <c r="A17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17" s="30">
+      <c r="M17" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N17" s="31">
+        <v/>
+      </c>
+      <c r="N17" s="30" t="str">
         <f>IF(M17="","",SUM(M$6:M17))</f>
-        <v>510</v>
+        <v/>
       </c>
     </row>
     <row r="18" ht="15" spans="1:14">
       <c r="A18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18" s="30">
+      <c r="M18" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="N18" s="31">
+        <v/>
+      </c>
+      <c r="N18" s="30" t="str">
         <f>IF(M18="","",SUM(M$6:M18))</f>
-        <v>585</v>
+        <v/>
       </c>
     </row>
     <row r="19" ht="15" spans="1:14">
       <c r="A19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>17</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19" s="30">
+      <c r="M19" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="N19" s="31">
+        <v/>
+      </c>
+      <c r="N19" s="30" t="str">
         <f>IF(M19="","",SUM(M$6:M19))</f>
-        <v>665</v>
+        <v/>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:14">
       <c r="A20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20" s="30">
+      <c r="M20" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="N20" s="31">
+        <v/>
+      </c>
+      <c r="N20" s="30" t="str">
         <f>IF(M20="","",SUM(M$6:M20))</f>
-        <v>750</v>
+        <v/>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:14">
       <c r="A21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>19</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21" s="30">
+      <c r="M21" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="N21" s="31">
+        <v/>
+      </c>
+      <c r="N21" s="30" t="str">
         <f>IF(M21="","",SUM(M$6:M21))</f>
-        <v>840</v>
+        <v/>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:14">
       <c r="A22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="M22" s="30" t="str">
+      <c r="M22" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N22" s="31" t="str">
+      <c r="N22" s="30" t="str">
         <f>IF(M22="","",SUM(M$6:M22))</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:21">
       <c r="A23" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="M23" s="30" t="str">
+      <c r="M23" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N23" s="31" t="str">
+      <c r="N23" s="30" t="str">
         <f>IF(M23="","",SUM(M$6:M23))</f>
         <v/>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:14">
       <c r="A24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="M24" s="30" t="str">
+      <c r="M24" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N24" s="31" t="str">
+      <c r="N24" s="30" t="str">
         <f>IF(M24="","",SUM(M$6:M24))</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" spans="1:14">
       <c r="A25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="M25" s="30" t="str">
+      <c r="M25" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N25" s="31" t="str">
+      <c r="N25" s="30" t="str">
         <f>IF(M25="","",SUM(M$6:M25))</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" spans="1:14">
       <c r="A26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="M26" s="30" t="str">
+      <c r="M26" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="31" t="str">
+      <c r="N26" s="30" t="str">
         <f>IF(M26="","",SUM(M$6:M26))</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" spans="1:14">
       <c r="A27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="M27" s="30" t="str">
+      <c r="M27" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N27" s="31" t="str">
+      <c r="N27" s="30" t="str">
         <f>IF(M27="","",SUM(M$6:M27))</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" spans="1:14">
       <c r="A28" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="17"/>
-      <c r="M28" s="30" t="str">
+      <c r="M28" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N28" s="31" t="str">
+      <c r="N28" s="30" t="str">
         <f>IF(M28="","",SUM(M$6:M28))</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" spans="1:14">
       <c r="A29" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="17"/>
-      <c r="M29" s="30" t="str">
+      <c r="M29" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="31" t="str">
+      <c r="N29" s="30" t="str">
         <f>IF(M29="","",SUM(M$6:M29))</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" spans="1:14">
       <c r="A30" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="17"/>
-      <c r="M30" s="30" t="str">
+      <c r="M30" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N30" s="31" t="str">
+      <c r="N30" s="30" t="str">
         <f>IF(M30="","",SUM(M$6:M30))</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:22">
       <c r="A31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="M31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N31" s="30" t="str">
+        <f>IF(M31="","",SUM(M$6:M31))</f>
+        <v/>
+      </c>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="M31" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N31" s="31" t="str">
-        <f>IF(M31="","",SUM(M$6:M31))</f>
-        <v/>
-      </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="R31" s="40" t="s">
+      <c r="S31" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="40" t="s">
+      <c r="T31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="40" t="s">
+      <c r="U31" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="U31" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="V31" s="41" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:22">
       <c r="A32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="M32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N32" s="30" t="str">
+        <f>IF(M32="","",SUM(M$6:M32))</f>
+        <v/>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="M32" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N32" s="31" t="str">
-        <f>IF(M32="","",SUM(M$6:M32))</f>
-        <v/>
-      </c>
-      <c r="P32" s="34" t="s">
+      <c r="Q32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="43"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:22">
       <c r="A33" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="M33" s="30" t="str">
+      <c r="M33" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N33" s="31" t="str">
+      <c r="N33" s="30" t="str">
         <f>IF(M33="","",SUM(M$6:M33))</f>
         <v/>
       </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="45"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="44"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:22">
       <c r="A34" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="M34" s="30" t="str">
+      <c r="M34" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N34" s="31" t="str">
+      <c r="N34" s="30" t="str">
         <f>IF(M34="","",SUM(M$6:M34))</f>
         <v/>
       </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="45"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="44"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:22">
       <c r="A35" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="17"/>
-      <c r="M35" s="30" t="str">
+      <c r="M35" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N35" s="31" t="str">
+      <c r="N35" s="30" t="str">
         <f>IF(M35="","",SUM(M$6:M35))</f>
         <v/>
       </c>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="45"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="44"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:22">
       <c r="A36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="17"/>
-      <c r="M36" s="30" t="str">
+      <c r="M36" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="31" t="str">
+      <c r="N36" s="30" t="str">
         <f>IF(M36="","",SUM(M$6:M36))</f>
         <v/>
       </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="46"/>
     </row>
     <row r="37" ht="15.15" spans="1:14">
       <c r="A37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20">
+        <f>SUM(D$6:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20">
+        <f>SUM(F$6:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20">
+        <f>SUM(H$6:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f>SUM(J$6:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20">
+        <f>SUM(L$6:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38" s="37" t="str">
+        <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
+        <v>0回合伤害：1</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="8:14">
+      <c r="H39" s="21"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="8:14">
+      <c r="H40" s="21"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="8:14">
+      <c r="H41" s="21"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="46" ht="17.4" spans="10:12">
+      <c r="J46" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21">
-        <f>SUM(D$6:D36)</f>
-        <v>136</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21">
-        <f>SUM(F$6:F36)</f>
-        <v>152</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21">
-        <f>SUM(H$6:H36)</f>
-        <v>168</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21">
-        <f>SUM(J$6:J36)</f>
-        <v>184</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21">
-        <f>SUM(L$6:L36)</f>
-        <v>200</v>
-      </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="37"/>
-    </row>
-    <row r="38" spans="9:14">
-      <c r="I38" s="38" t="str">
-        <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
-        <v>16回合伤害：840</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="8:14">
-      <c r="H39" s="22"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-    </row>
-    <row r="40" ht="22" customHeight="1" spans="8:14">
-      <c r="H40" s="22"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="8:14">
-      <c r="H41" s="22"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-    </row>
-    <row r="46" ht="17.4" spans="10:12">
-      <c r="J46" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="50" spans="17:18">
       <c r="Q50">
         <f>SUM(D37,F37,H37,J37,L37)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <f>IF(Q50=0,1,Q50)</f>
-        <v>840</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +3541,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9b213020-3281-4e0f-9b3a-7292d13cd49f}</x14:id>
+          <x14:id>{b10482b5-0600-43ce-8908-11f755ccc9a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3945,7 +3560,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{207953e3-3f94-434d-9a21-2d0c45e26284}</x14:id>
+          <x14:id>{da7e919f-bdf5-46b5-9d95-7ef878396618}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3959,7 +3574,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78a89b8e-bf20-488e-b2f8-09642fc66953}</x14:id>
+          <x14:id>{3f32d2af-9c75-4a25-9258-a39da4100706}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3973,7 +3588,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00617252-e18c-4675-a8f6-026eeb1fa468}</x14:id>
+          <x14:id>{45db6860-4b7e-4045-9cb9-4b83bb1ac816}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3987,7 +3602,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22692042-5b6d-47ca-a957-31646f143cce}</x14:id>
+          <x14:id>{b01adbf9-9dfd-4aef-a19f-3bb3a70f210b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4009,7 +3624,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d353bd8e-ae47-423a-9c04-4e46b1a6707a}</x14:id>
+          <x14:id>{ddcfab59-948f-415d-bb91-82ecbf8aaa6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4021,7 +3636,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9b213020-3281-4e0f-9b3a-7292d13cd49f}">
+          <x14:cfRule type="dataBar" id="{b10482b5-0600-43ce-8908-11f755ccc9a2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4034,7 +3649,7 @@
           <xm:sqref>D37:L37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{207953e3-3f94-434d-9a21-2d0c45e26284}">
+          <x14:cfRule type="dataBar" id="{da7e919f-bdf5-46b5-9d95-7ef878396618}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4047,7 +3662,7 @@
           <xm:sqref>D6:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78a89b8e-bf20-488e-b2f8-09642fc66953}">
+          <x14:cfRule type="dataBar" id="{3f32d2af-9c75-4a25-9258-a39da4100706}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4060,7 +3675,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{00617252-e18c-4675-a8f6-026eeb1fa468}">
+          <x14:cfRule type="dataBar" id="{45db6860-4b7e-4045-9cb9-4b83bb1ac816}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4073,7 +3688,7 @@
           <xm:sqref>N6:N36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22692042-5b6d-47ca-a957-31646f143cce}">
+          <x14:cfRule type="dataBar" id="{b01adbf9-9dfd-4aef-a19f-3bb3a70f210b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4086,7 +3701,7 @@
           <xm:sqref>C6 C8:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d353bd8e-ae47-423a-9c04-4e46b1a6707a}">
+          <x14:cfRule type="dataBar" id="{ddcfab59-948f-415d-bb91-82ecbf8aaa6f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
